--- a/2023-06-27 Tuesday.xlsx
+++ b/2023-06-27 Tuesday.xlsx
@@ -37,7 +37,7 @@
     <t>吳*瑩</t>
   </si>
   <si>
-    <t>2023-06-27 15:26:42</t>
+    <t>2023-06-27 16:20:46</t>
   </si>
   <si>
     <t>IN</t>
